--- a/data/trans_orig/P16A06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFBF02DD-1C41-467A-B7B1-32CCE024D54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE030E9C-4941-4281-8963-0DDAA7014368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EBBCA11F-67DE-46C1-8B08-BDD099FDD70D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{203B5E94-501A-40A4-8A88-5895D638C537}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="473">
   <si>
     <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -86,16 +86,19 @@
     <t>1,08%</t>
   </si>
   <si>
-    <t>2,37%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
   </si>
   <si>
     <t>No</t>
@@ -113,16 +116,19 @@
     <t>98,92%</t>
   </si>
   <si>
-    <t>97,63%</t>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
   </si>
   <si>
     <t>99,48%</t>
   </si>
   <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -134,1201 +140,1231 @@
     <t>0,26%</t>
   </si>
   <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
   </si>
   <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,38%</t>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
   </si>
   <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
   </si>
   <si>
     <t>96,5%</t>
   </si>
   <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
   </si>
   <si>
     <t>8,59%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
   </si>
   <si>
     <t>6,54%</t>
   </si>
   <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
   </si>
   <si>
     <t>91,41%</t>
   </si>
   <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
   </si>
   <si>
     <t>93,46%</t>
   </si>
   <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
   </si>
   <si>
     <t>14,51%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
   </si>
   <si>
     <t>10,58%</t>
   </si>
   <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
   </si>
   <si>
     <t>85,49%</t>
   </si>
   <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
   </si>
   <si>
     <t>89,42%</t>
   </si>
   <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
+    <t>90,83%</t>
   </si>
   <si>
     <t>11,86%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
   </si>
   <si>
     <t>19,6%</t>
   </si>
   <si>
-    <t>13,74%</t>
+    <t>13,53%</t>
   </si>
   <si>
     <t>22,7%</t>
@@ -1337,19 +1373,19 @@
     <t>16,46%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
   </si>
   <si>
     <t>88,14%</t>
   </si>
   <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
   </si>
   <si>
     <t>80,4%</t>
@@ -1358,64 +1394,70 @@
     <t>77,3%</t>
   </si>
   <si>
-    <t>86,26%</t>
+    <t>86,47%</t>
   </si>
   <si>
     <t>83,54%</t>
   </si>
   <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
   </si>
   <si>
     <t>5,23%</t>
   </si>
   <si>
-    <t>6,14%</t>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
   </si>
   <si>
     <t>10,45%</t>
   </si>
   <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
   </si>
   <si>
     <t>7,99%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
   </si>
   <si>
     <t>94,77%</t>
   </si>
   <si>
-    <t>93,86%</t>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
   </si>
   <si>
     <t>89,55%</t>
   </si>
   <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
   </si>
   <si>
     <t>92,01%</t>
   </si>
   <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
 </sst>
 </file>
@@ -1827,7 +1869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3A6582-E18B-4CC3-9A8A-F7960116BC06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1684C21-1DC1-4253-9A18-6CE05C1D7937}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1969,10 +2011,10 @@
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -1981,19 +2023,19 @@
         <v>5036</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>499</v>
@@ -2002,13 +2044,13 @@
         <v>494064</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>484</v>
@@ -2017,13 +2059,13 @@
         <v>462453</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>983</v>
@@ -2032,13 +2074,13 @@
         <v>956517</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2053,13 +2095,13 @@
         <v>494064</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>489</v>
@@ -2068,13 +2110,13 @@
         <v>467489</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>988</v>
@@ -2083,18 +2125,18 @@
         <v>961553</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2106,13 +2148,13 @@
         <v>5099</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -2121,13 +2163,13 @@
         <v>7353</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -2136,19 +2178,19 @@
         <v>12452</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>698</v>
@@ -2157,13 +2199,13 @@
         <v>730390</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>584</v>
@@ -2172,13 +2214,13 @@
         <v>618141</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>1282</v>
@@ -2187,13 +2229,13 @@
         <v>1348530</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2208,13 +2250,13 @@
         <v>735489</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>591</v>
@@ -2223,13 +2265,13 @@
         <v>625494</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>1294</v>
@@ -2238,18 +2280,18 @@
         <v>1360982</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2261,13 +2303,13 @@
         <v>8786</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -2276,13 +2318,13 @@
         <v>15800</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -2291,19 +2333,19 @@
         <v>24586</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>603</v>
@@ -2312,13 +2354,13 @@
         <v>628863</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>643</v>
@@ -2363,13 +2405,13 @@
         <v>637649</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>658</v>
@@ -2378,13 +2420,13 @@
         <v>689744</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>1270</v>
@@ -2393,13 +2435,13 @@
         <v>1327394</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2458,7 +2500,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>476</v>
@@ -2518,13 +2560,13 @@
         <v>519147</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>502</v>
@@ -2533,13 +2575,13 @@
         <v>515642</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>986</v>
@@ -2548,13 +2590,13 @@
         <v>1034789</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,7 +2655,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>382</v>
@@ -2673,13 +2715,13 @@
         <v>386710</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>396</v>
@@ -2688,13 +2730,13 @@
         <v>403986</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>788</v>
@@ -2703,13 +2745,13 @@
         <v>790696</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,10 +2771,10 @@
         <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -2741,13 +2783,13 @@
         <v>65600</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>98</v>
@@ -2756,19 +2798,19 @@
         <v>97342</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>488</v>
@@ -2777,13 +2819,13 @@
         <v>470724</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>598</v>
@@ -2792,13 +2834,13 @@
         <v>611242</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>1086</v>
@@ -2807,13 +2849,13 @@
         <v>1081966</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,13 +2870,13 @@
         <v>502466</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>661</v>
@@ -2843,13 +2885,13 @@
         <v>676842</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>1184</v>
@@ -2858,13 +2900,13 @@
         <v>1179308</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,13 +2923,13 @@
         <v>64924</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>136</v>
@@ -2896,13 +2938,13 @@
         <v>140672</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>203</v>
@@ -2911,34 +2953,34 @@
         <v>205596</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>3146</v>
       </c>
       <c r="D23" s="7">
-        <v>3210601</v>
+        <v>3210602</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>3161</v>
@@ -2947,28 +2989,28 @@
         <v>3238526</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M23" s="7">
         <v>6307</v>
       </c>
       <c r="N23" s="7">
-        <v>6449126</v>
+        <v>6449127</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,16 +3022,16 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H24" s="7">
         <v>3297</v>
@@ -2998,33 +3040,33 @@
         <v>3379198</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M24" s="7">
         <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3046,7 +3088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BEBC38-2C6C-4ECB-BAB2-1296C98D4D40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA75D89-5C20-4DC5-97B0-6AE80BED88FA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3063,7 +3105,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3170,13 +3212,13 @@
         <v>818</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -3185,13 +3227,13 @@
         <v>5862</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -3200,19 +3242,19 @@
         <v>6679</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>444</v>
@@ -3221,13 +3263,13 @@
         <v>452287</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>414</v>
@@ -3236,13 +3278,13 @@
         <v>423477</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M5" s="7">
         <v>858</v>
@@ -3251,13 +3293,13 @@
         <v>875766</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,13 +3314,13 @@
         <v>453105</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>420</v>
@@ -3287,13 +3329,13 @@
         <v>429339</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>865</v>
@@ -3302,18 +3344,18 @@
         <v>882445</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3325,13 +3367,13 @@
         <v>6711</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -3340,13 +3382,13 @@
         <v>5716</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -3355,19 +3397,19 @@
         <v>12427</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>661</v>
@@ -3376,13 +3418,13 @@
         <v>679527</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H8" s="7">
         <v>566</v>
@@ -3391,13 +3433,13 @@
         <v>603498</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M8" s="7">
         <v>1227</v>
@@ -3406,13 +3448,13 @@
         <v>1283024</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,13 +3469,13 @@
         <v>686238</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>570</v>
@@ -3442,13 +3484,13 @@
         <v>609214</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>1236</v>
@@ -3457,18 +3499,18 @@
         <v>1295451</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3480,13 +3522,13 @@
         <v>15454</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -3495,34 +3537,34 @@
         <v>31248</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
       </c>
       <c r="N10" s="7">
-        <v>46703</v>
+        <v>46702</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>636</v>
@@ -3531,13 +3573,13 @@
         <v>663570</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="H11" s="7">
         <v>632</v>
@@ -3546,13 +3588,13 @@
         <v>674687</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M11" s="7">
         <v>1268</v>
@@ -3561,13 +3603,13 @@
         <v>1338257</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,13 +3624,13 @@
         <v>679024</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>663</v>
@@ -3597,28 +3639,28 @@
         <v>705935</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>1311</v>
       </c>
       <c r="N12" s="7">
-        <v>1384960</v>
+        <v>1384959</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,13 +3677,13 @@
         <v>14636</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -3650,13 +3692,13 @@
         <v>33603</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -3665,19 +3707,19 @@
         <v>48240</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>536</v>
@@ -3686,13 +3728,13 @@
         <v>599981</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H14" s="7">
         <v>507</v>
@@ -3701,13 +3743,13 @@
         <v>579455</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M14" s="7">
         <v>1043</v>
@@ -3716,13 +3758,13 @@
         <v>1179435</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,13 +3779,13 @@
         <v>614617</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>536</v>
@@ -3752,13 +3794,13 @@
         <v>613058</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>1084</v>
@@ -3767,13 +3809,13 @@
         <v>1227675</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,13 +3832,13 @@
         <v>9684</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -3805,13 +3847,13 @@
         <v>33213</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M16" s="7">
         <v>40</v>
@@ -3820,19 +3862,19 @@
         <v>42897</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>383</v>
@@ -3841,10 +3883,10 @@
         <v>418660</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>215</v>
@@ -3871,7 +3913,7 @@
         <v>833247</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>219</v>
@@ -3892,13 +3934,13 @@
         <v>428344</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>406</v>
@@ -3907,13 +3949,13 @@
         <v>447800</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>798</v>
@@ -3922,13 +3964,13 @@
         <v>876144</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,7 +4029,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>481</v>
@@ -4047,13 +4089,13 @@
         <v>556614</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>691</v>
@@ -4062,13 +4104,13 @@
         <v>739812</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>1193</v>
@@ -4077,13 +4119,13 @@
         <v>1296426</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4142,13 @@
         <v>70022</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>74</v>
+        <v>239</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H22" s="7">
         <v>205</v>
@@ -4115,13 +4157,13 @@
         <v>222959</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M22" s="7">
         <v>265</v>
@@ -4130,19 +4172,19 @@
         <v>292981</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>3141</v>
@@ -4151,13 +4193,13 @@
         <v>3347919</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>84</v>
+        <v>248</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H23" s="7">
         <v>3081</v>
@@ -4166,13 +4208,13 @@
         <v>3322200</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M23" s="7">
         <v>6222</v>
@@ -4181,13 +4223,13 @@
         <v>6670119</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,13 +4244,13 @@
         <v>3417941</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H24" s="7">
         <v>3286</v>
@@ -4217,13 +4259,13 @@
         <v>3545159</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M24" s="7">
         <v>6487</v>
@@ -4232,18 +4274,18 @@
         <v>6963100</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4265,7 +4307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3931F8-928E-4BA5-9C9E-F7B04959DC67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D695D3-3461-4184-8996-ED67118DECA7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4282,7 +4324,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4395,7 +4437,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -4404,13 +4446,13 @@
         <v>4600</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4419,19 +4461,19 @@
         <v>4600</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>393</v>
@@ -4440,13 +4482,13 @@
         <v>419463</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>400</v>
@@ -4455,13 +4497,13 @@
         <v>391155</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M5" s="7">
         <v>793</v>
@@ -4470,13 +4512,13 @@
         <v>810618</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,13 +4533,13 @@
         <v>419463</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>404</v>
@@ -4506,13 +4548,13 @@
         <v>395755</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>797</v>
@@ -4521,18 +4563,18 @@
         <v>815218</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4544,13 +4586,13 @@
         <v>1989</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4559,13 +4601,13 @@
         <v>6535</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>269</v>
+        <v>160</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -4574,19 +4616,19 @@
         <v>8524</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>565</v>
@@ -4595,13 +4637,13 @@
         <v>588507</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
         <v>572</v>
@@ -4610,13 +4652,13 @@
         <v>557009</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>274</v>
+        <v>168</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>1137</v>
@@ -4625,13 +4667,13 @@
         <v>1145516</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,13 +4688,13 @@
         <v>590496</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>579</v>
@@ -4661,13 +4703,13 @@
         <v>563544</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>1146</v>
@@ -4676,18 +4718,18 @@
         <v>1154040</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4699,13 +4741,13 @@
         <v>5558</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>68</v>
+        <v>280</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -4714,13 +4756,13 @@
         <v>14950</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>284</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -4729,19 +4771,19 @@
         <v>20507</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>633</v>
@@ -4750,13 +4792,13 @@
         <v>663539</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H11" s="7">
         <v>649</v>
@@ -4765,13 +4807,13 @@
         <v>646436</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>133</v>
+        <v>290</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="M11" s="7">
         <v>1282</v>
@@ -4780,13 +4822,13 @@
         <v>1309976</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,13 +4843,13 @@
         <v>669097</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>665</v>
@@ -4816,13 +4858,13 @@
         <v>661386</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>1303</v>
@@ -4831,13 +4873,13 @@
         <v>1330483</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,13 +4896,13 @@
         <v>18782</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -4869,13 +4911,13 @@
         <v>45422</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
@@ -4884,19 +4926,19 @@
         <v>64205</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>565</v>
@@ -4905,13 +4947,13 @@
         <v>627266</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H14" s="7">
         <v>559</v>
@@ -4920,13 +4962,13 @@
         <v>603655</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M14" s="7">
         <v>1124</v>
@@ -4935,13 +4977,13 @@
         <v>1230920</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,13 +4998,13 @@
         <v>646048</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>602</v>
@@ -4971,13 +5013,13 @@
         <v>649077</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>1184</v>
@@ -4986,13 +5028,13 @@
         <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,13 +5051,13 @@
         <v>17614</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>308</v>
+        <v>69</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -5024,13 +5066,13 @@
         <v>66031</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -5039,19 +5081,19 @@
         <v>83645</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>410</v>
@@ -5060,13 +5102,13 @@
         <v>460304</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H17" s="7">
         <v>375</v>
@@ -5075,13 +5117,13 @@
         <v>430818</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M17" s="7">
         <v>785</v>
@@ -5090,13 +5132,13 @@
         <v>891122</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,13 +5153,13 @@
         <v>477918</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>433</v>
@@ -5126,13 +5168,13 @@
         <v>496849</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>857</v>
@@ -5141,13 +5183,13 @@
         <v>974767</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,13 +5206,13 @@
         <v>46081</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H19" s="7">
         <v>111</v>
@@ -5179,13 +5221,13 @@
         <v>128944</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M19" s="7">
         <v>159</v>
@@ -5194,19 +5236,19 @@
         <v>175025</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>579</v>
@@ -5215,13 +5257,13 @@
         <v>545247</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H20" s="7">
         <v>544</v>
@@ -5230,13 +5272,13 @@
         <v>648987</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M20" s="7">
         <v>1123</v>
@@ -5245,13 +5287,13 @@
         <v>1194234</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,13 +5308,13 @@
         <v>591328</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>655</v>
@@ -5281,13 +5323,13 @@
         <v>777931</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>1282</v>
@@ -5296,13 +5338,13 @@
         <v>1369259</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,13 +5361,13 @@
         <v>90024</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>56</v>
+        <v>346</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H22" s="7">
         <v>239</v>
@@ -5334,13 +5376,13 @@
         <v>266481</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M22" s="7">
         <v>325</v>
@@ -5349,19 +5391,19 @@
         <v>356505</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>3145</v>
@@ -5370,13 +5412,13 @@
         <v>3304326</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>64</v>
+        <v>355</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="H23" s="7">
         <v>3099</v>
@@ -5385,13 +5427,13 @@
         <v>3278061</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M23" s="7">
         <v>6244</v>
@@ -5400,13 +5442,13 @@
         <v>6582387</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5421,13 +5463,13 @@
         <v>3394350</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H24" s="7">
         <v>3338</v>
@@ -5436,13 +5478,13 @@
         <v>3544542</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M24" s="7">
         <v>6569</v>
@@ -5451,18 +5493,18 @@
         <v>6938892</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -5484,7 +5526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A2A5AD-E645-4997-A054-E28C8F6160B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6294DFF4-8300-44B3-949A-DA3BE06D114E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5501,7 +5543,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5608,13 +5650,13 @@
         <v>3582</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -5623,13 +5665,13 @@
         <v>14115</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>239</v>
+        <v>368</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -5638,19 +5680,19 @@
         <v>17698</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>177</v>
+        <v>370</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>206</v>
+        <v>371</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>170</v>
@@ -5659,13 +5701,13 @@
         <v>374097</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>201</v>
@@ -5674,13 +5716,13 @@
         <v>340842</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>377</v>
       </c>
       <c r="M5" s="7">
         <v>371</v>
@@ -5689,13 +5731,13 @@
         <v>714938</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>186</v>
+        <v>378</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>215</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,13 +5752,13 @@
         <v>377679</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>207</v>
@@ -5725,13 +5767,13 @@
         <v>354957</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>379</v>
@@ -5740,18 +5782,18 @@
         <v>732636</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5763,13 +5805,13 @@
         <v>2894</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>49</v>
+        <v>381</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -5778,13 +5820,13 @@
         <v>7929</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>375</v>
+        <v>126</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -5793,19 +5835,19 @@
         <v>10822</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>171</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>298</v>
@@ -5814,13 +5856,13 @@
         <v>425502</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>59</v>
+        <v>388</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="H8" s="7">
         <v>454</v>
@@ -5829,13 +5871,13 @@
         <v>490648</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>381</v>
+        <v>134</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="M8" s="7">
         <v>752</v>
@@ -5844,13 +5886,13 @@
         <v>916151</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,13 +5907,13 @@
         <v>428396</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>460</v>
@@ -5880,13 +5922,13 @@
         <v>498577</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>762</v>
@@ -5895,18 +5937,18 @@
         <v>926973</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5918,13 +5960,13 @@
         <v>15828</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -5933,13 +5975,13 @@
         <v>24062</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>189</v>
+        <v>397</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -5948,19 +5990,19 @@
         <v>39891</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>400</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>389</v>
+        <v>16</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>534</v>
@@ -5969,13 +6011,13 @@
         <v>541424</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>811</v>
@@ -5984,13 +6026,13 @@
         <v>559414</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>404</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="M11" s="7">
         <v>1345</v>
@@ -5999,13 +6041,13 @@
         <v>1100836</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>407</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>253</v>
+        <v>408</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>394</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,13 +6062,13 @@
         <v>557252</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>846</v>
@@ -6035,13 +6077,13 @@
         <v>583476</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>1392</v>
@@ -6050,13 +6092,13 @@
         <v>1140727</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6073,13 +6115,13 @@
         <v>32040</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -6088,13 +6130,13 @@
         <v>64167</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="M13" s="7">
         <v>118</v>
@@ -6103,19 +6145,19 @@
         <v>96206</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>195</v>
+        <v>415</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>635</v>
@@ -6124,13 +6166,13 @@
         <v>691950</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="H14" s="7">
         <v>1052</v>
@@ -6139,13 +6181,13 @@
         <v>682935</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="M14" s="7">
         <v>1687</v>
@@ -6154,13 +6196,13 @@
         <v>1374886</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>203</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,13 +6217,13 @@
         <v>723990</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>1140</v>
@@ -6190,13 +6232,13 @@
         <v>747102</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>1805</v>
@@ -6205,13 +6247,13 @@
         <v>1471092</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6228,13 +6270,13 @@
         <v>40112</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>410</v>
+        <v>299</v>
       </c>
       <c r="H16" s="7">
         <v>144</v>
@@ -6243,13 +6285,13 @@
         <v>86077</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="M16" s="7">
         <v>187</v>
@@ -6258,19 +6300,19 @@
         <v>126189</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>619</v>
@@ -6279,13 +6321,13 @@
         <v>558974</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>417</v>
+        <v>307</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="H17" s="7">
         <v>855</v>
@@ -6294,13 +6336,13 @@
         <v>507339</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="M17" s="7">
         <v>1474</v>
@@ -6309,13 +6351,13 @@
         <v>1066313</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,13 +6372,13 @@
         <v>599086</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>999</v>
@@ -6345,13 +6387,13 @@
         <v>593416</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>1661</v>
@@ -6360,13 +6402,13 @@
         <v>1192502</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6383,13 +6425,13 @@
         <v>82657</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="H19" s="7">
         <v>375</v>
@@ -6398,13 +6440,13 @@
         <v>200895</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="M19" s="7">
         <v>505</v>
@@ -6413,19 +6455,19 @@
         <v>283552</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>897</v>
@@ -6434,13 +6476,13 @@
         <v>614577</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="H20" s="7">
         <v>1330</v>
@@ -6449,13 +6491,13 @@
         <v>824120</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="M20" s="7">
         <v>2227</v>
@@ -6464,13 +6506,13 @@
         <v>1438697</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,13 +6527,13 @@
         <v>697234</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>1705</v>
@@ -6500,13 +6542,13 @@
         <v>1025015</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>2732</v>
@@ -6515,13 +6557,13 @@
         <v>1722249</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6538,13 +6580,13 @@
         <v>177114</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>292</v>
+        <v>456</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="H22" s="7">
         <v>654</v>
@@ -6553,13 +6595,13 @@
         <v>397244</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="M22" s="7">
         <v>875</v>
@@ -6568,49 +6610,49 @@
         <v>574358</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>3153</v>
       </c>
       <c r="D23" s="7">
-        <v>3206522</v>
+        <v>3206523</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>300</v>
+        <v>466</v>
       </c>
       <c r="H23" s="7">
         <v>4703</v>
       </c>
       <c r="I23" s="7">
-        <v>3405299</v>
+        <v>3405300</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="M23" s="7">
         <v>7856</v>
@@ -6619,13 +6661,13 @@
         <v>6611822</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6637,31 +6679,31 @@
         <v>3374</v>
       </c>
       <c r="D24" s="7">
-        <v>3383636</v>
+        <v>3383637</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H24" s="7">
         <v>5357</v>
       </c>
       <c r="I24" s="7">
-        <v>3802543</v>
+        <v>3802544</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M24" s="7">
         <v>8731</v>
@@ -6670,18 +6712,18 @@
         <v>7186180</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A06-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE030E9C-4941-4281-8963-0DDAA7014368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CC7EC81-89E5-4DDE-9D97-BA05F7AF026F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{203B5E94-501A-40A4-8A88-5895D638C537}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D6B80D47-06A9-4CE9-9D1A-78F5827A0F85}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -86,1254 +86,1260 @@
     <t>1,08%</t>
   </si>
   <si>
-    <t>0,41%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
   </si>
   <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
   </si>
   <si>
     <t>97,46%</t>
   </si>
   <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
   </si>
   <si>
     <t>8,94%</t>
   </si>
   <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
   </si>
   <si>
     <t>91,06%</t>
   </si>
   <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
     <t>95,11%</t>
   </si>
   <si>
@@ -1418,9 +1424,6 @@
     <t>10,45%</t>
   </si>
   <si>
-    <t>9,24%</t>
-  </si>
-  <si>
     <t>11,44%</t>
   </si>
   <si>
@@ -1446,9 +1449,6 @@
   </si>
   <si>
     <t>88,56%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
   </si>
   <si>
     <t>92,01%</t>
@@ -1869,7 +1869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1684C21-1DC1-4253-9A18-6CE05C1D7937}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D97E05A-970B-4EE4-A937-21DAF4D33BA1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2476,10 +2476,10 @@
         <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -2488,13 +2488,13 @@
         <v>30361</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,13 +2509,13 @@
         <v>509714</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>481</v>
@@ -2524,13 +2524,13 @@
         <v>494714</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="M14" s="7">
         <v>957</v>
@@ -2539,13 +2539,13 @@
         <v>1004428</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,7 +2601,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2613,13 +2613,13 @@
         <v>9863</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -2628,13 +2628,13 @@
         <v>25956</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -2643,13 +2643,13 @@
         <v>35819</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,13 +2664,13 @@
         <v>376847</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>371</v>
@@ -2679,13 +2679,13 @@
         <v>378030</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M17" s="7">
         <v>753</v>
@@ -2694,13 +2694,13 @@
         <v>754877</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,7 +2756,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2768,13 +2768,13 @@
         <v>31742</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -2783,13 +2783,13 @@
         <v>65600</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M19" s="7">
         <v>98</v>
@@ -2798,13 +2798,13 @@
         <v>97342</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2819,13 +2819,13 @@
         <v>470724</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H20" s="7">
         <v>598</v>
@@ -2834,13 +2834,13 @@
         <v>611242</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>1086</v>
@@ -2849,13 +2849,13 @@
         <v>1081966</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2923,13 +2923,13 @@
         <v>64924</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H22" s="7">
         <v>136</v>
@@ -2938,13 +2938,13 @@
         <v>140672</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="M22" s="7">
         <v>203</v>
@@ -2953,13 +2953,13 @@
         <v>205596</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,16 +2971,16 @@
         <v>3146</v>
       </c>
       <c r="D23" s="7">
-        <v>3210602</v>
+        <v>3210601</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H23" s="7">
         <v>3161</v>
@@ -2989,13 +2989,13 @@
         <v>3238526</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M23" s="7">
         <v>6307</v>
@@ -3004,13 +3004,13 @@
         <v>6449127</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,7 +3022,7 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>23</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3088,7 +3088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA75D89-5C20-4DC5-97B0-6AE80BED88FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B965471-400B-4B24-8585-8D6AD83EEA63}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3105,7 +3105,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3212,13 +3212,13 @@
         <v>818</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -3227,13 +3227,13 @@
         <v>5862</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -3242,13 +3242,13 @@
         <v>6679</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,10 +3263,10 @@
         <v>452287</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3278,13 +3278,13 @@
         <v>423477</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M5" s="7">
         <v>858</v>
@@ -3293,13 +3293,13 @@
         <v>875766</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,13 +3367,13 @@
         <v>6711</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -3382,13 +3382,13 @@
         <v>5716</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -3397,13 +3397,13 @@
         <v>12427</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>163</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3418,13 @@
         <v>679527</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H8" s="7">
         <v>566</v>
@@ -3433,13 +3433,13 @@
         <v>603498</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M8" s="7">
         <v>1227</v>
@@ -3448,13 +3448,13 @@
         <v>1283024</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,13 +3522,13 @@
         <v>15454</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -3537,13 +3537,13 @@
         <v>31248</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -3552,13 +3552,13 @@
         <v>46702</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3573,13 @@
         <v>663570</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="H11" s="7">
         <v>632</v>
@@ -3588,13 +3588,13 @@
         <v>674687</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M11" s="7">
         <v>1268</v>
@@ -3603,13 +3603,13 @@
         <v>1338257</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3677,13 @@
         <v>14636</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -3692,13 +3692,13 @@
         <v>33603</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -3707,13 +3707,13 @@
         <v>48240</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3728,13 @@
         <v>599981</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H14" s="7">
         <v>507</v>
@@ -3743,13 +3743,13 @@
         <v>579455</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M14" s="7">
         <v>1043</v>
@@ -3758,13 +3758,13 @@
         <v>1179435</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,7 +3820,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3832,13 +3832,13 @@
         <v>9684</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -3847,13 +3847,13 @@
         <v>33213</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M16" s="7">
         <v>40</v>
@@ -3862,13 +3862,13 @@
         <v>42897</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>127</v>
+        <v>209</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3883,13 @@
         <v>418660</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H17" s="7">
         <v>375</v>
@@ -3898,13 +3898,13 @@
         <v>414587</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M17" s="7">
         <v>758</v>
@@ -3913,7 +3913,7 @@
         <v>833247</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>219</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4145,10 +4145,10 @@
         <v>239</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H22" s="7">
         <v>205</v>
@@ -4157,13 +4157,13 @@
         <v>222959</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M22" s="7">
         <v>265</v>
@@ -4172,13 +4172,13 @@
         <v>292981</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4193,13 @@
         <v>3347919</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="H23" s="7">
         <v>3081</v>
@@ -4208,13 +4208,13 @@
         <v>3322200</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M23" s="7">
         <v>6222</v>
@@ -4223,13 +4223,13 @@
         <v>6670119</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,7 +4285,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4307,7 +4307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D695D3-3461-4184-8996-ED67118DECA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3716CF5E-AA60-44A8-800D-53EEC795A813}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4324,7 +4324,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4437,7 +4437,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -4446,13 +4446,13 @@
         <v>4600</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4461,13 +4461,13 @@
         <v>4600</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,7 +4485,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -4497,13 +4497,13 @@
         <v>391155</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M5" s="7">
         <v>793</v>
@@ -4512,13 +4512,13 @@
         <v>810618</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4586,13 +4586,13 @@
         <v>1989</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>269</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4601,13 +4601,13 @@
         <v>6535</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -4616,13 +4616,13 @@
         <v>8524</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,10 +4637,10 @@
         <v>588507</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>43</v>
+        <v>275</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -4652,13 +4652,13 @@
         <v>557009</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>168</v>
+        <v>276</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>1137</v>
@@ -4744,10 +4744,10 @@
         <v>280</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -4756,13 +4756,13 @@
         <v>14950</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>283</v>
+        <v>139</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -4771,13 +4771,13 @@
         <v>20507</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4792,13 @@
         <v>663539</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>288</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>289</v>
+        <v>161</v>
       </c>
       <c r="H11" s="7">
         <v>649</v>
@@ -4807,13 +4807,13 @@
         <v>646436</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>291</v>
+        <v>146</v>
       </c>
       <c r="M11" s="7">
         <v>1282</v>
@@ -4822,13 +4822,13 @@
         <v>1309976</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,13 +4896,13 @@
         <v>18782</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -4911,13 +4911,13 @@
         <v>45422</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
@@ -4926,13 +4926,13 @@
         <v>64205</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,13 +4947,13 @@
         <v>627266</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H14" s="7">
         <v>559</v>
@@ -4962,13 +4962,13 @@
         <v>603655</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M14" s="7">
         <v>1124</v>
@@ -4977,13 +4977,13 @@
         <v>1230920</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,7 +5039,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5051,13 +5051,13 @@
         <v>17614</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>69</v>
+        <v>310</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -5066,13 +5066,13 @@
         <v>66031</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -5081,13 +5081,13 @@
         <v>83645</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,7 +5102,7 @@
         <v>460304</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>320</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5504,7 +5504,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -5526,7 +5526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6294DFF4-8300-44B3-949A-DA3BE06D114E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF10D556-5575-49A6-ADA5-150F7820F47A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5656,7 +5656,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -5665,13 +5665,13 @@
         <v>14115</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -5680,13 +5680,13 @@
         <v>17698</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>371</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>372</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,10 +5701,10 @@
         <v>374097</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -5716,13 +5716,13 @@
         <v>340842</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M5" s="7">
         <v>371</v>
@@ -5731,13 +5731,13 @@
         <v>714938</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>379</v>
+        <v>201</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,13 +5805,13 @@
         <v>2894</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -5820,13 +5820,13 @@
         <v>7929</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -5835,10 +5835,10 @@
         <v>10822</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>386</v>
+        <v>269</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>52</v>
@@ -5856,13 +5856,13 @@
         <v>425502</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H8" s="7">
         <v>454</v>
@@ -5871,13 +5871,13 @@
         <v>490648</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="M8" s="7">
         <v>752</v>
@@ -5886,13 +5886,13 @@
         <v>916151</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>393</v>
+        <v>275</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>60</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,13 +5960,13 @@
         <v>15828</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>390</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -5975,13 +5975,13 @@
         <v>24062</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -5990,13 +5990,13 @@
         <v>39891</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>16</v>
+        <v>396</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,13 +6011,13 @@
         <v>541424</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>400</v>
       </c>
       <c r="H11" s="7">
         <v>811</v>
@@ -6026,13 +6026,13 @@
         <v>559414</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="M11" s="7">
         <v>1345</v>
@@ -6041,13 +6041,13 @@
         <v>1100836</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,13 +6115,13 @@
         <v>32040</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -6130,13 +6130,13 @@
         <v>64167</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M13" s="7">
         <v>118</v>
@@ -6145,13 +6145,13 @@
         <v>96206</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6166,13 +6166,13 @@
         <v>691950</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H14" s="7">
         <v>1052</v>
@@ -6181,13 +6181,13 @@
         <v>682935</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M14" s="7">
         <v>1687</v>
@@ -6196,13 +6196,13 @@
         <v>1374886</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6258,7 +6258,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6270,13 +6270,13 @@
         <v>40112</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>350</v>
+        <v>423</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H16" s="7">
         <v>144</v>
@@ -6306,7 +6306,7 @@
         <v>430</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,13 +6321,13 @@
         <v>558974</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>360</v>
+        <v>431</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>307</v>
+        <v>432</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H17" s="7">
         <v>855</v>
@@ -6336,13 +6336,13 @@
         <v>507339</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M17" s="7">
         <v>1474</v>
@@ -6351,13 +6351,13 @@
         <v>1066313</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6413,7 +6413,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6425,13 +6425,13 @@
         <v>82657</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H19" s="7">
         <v>375</v>
@@ -6440,13 +6440,13 @@
         <v>200895</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M19" s="7">
         <v>505</v>
@@ -6455,13 +6455,13 @@
         <v>283552</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6476,13 +6476,13 @@
         <v>614577</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H20" s="7">
         <v>1330</v>
@@ -6491,13 +6491,13 @@
         <v>824120</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="M20" s="7">
         <v>2227</v>
@@ -6506,13 +6506,13 @@
         <v>1438697</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6580,13 +6580,13 @@
         <v>177114</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H22" s="7">
         <v>654</v>
@@ -6595,13 +6595,13 @@
         <v>397244</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>459</v>
+        <v>88</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M22" s="7">
         <v>875</v>
@@ -6610,13 +6610,13 @@
         <v>574358</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6631,13 +6631,13 @@
         <v>3206523</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H23" s="7">
         <v>4703</v>
@@ -6646,13 +6646,13 @@
         <v>3405300</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>469</v>
+        <v>95</v>
       </c>
       <c r="M23" s="7">
         <v>7856</v>
@@ -6723,7 +6723,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CC7EC81-89E5-4DDE-9D97-BA05F7AF026F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BCE7282-478C-4557-A9D6-AA200DB79D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D6B80D47-06A9-4CE9-9D1A-78F5827A0F85}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AC3D17A0-7BED-487B-8F7C-C7DF0D408A59}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="459">
   <si>
     <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -86,19 +86,16 @@
     <t>1,08%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
+    <t>2,37%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
   </si>
   <si>
     <t>No</t>
@@ -116,19 +113,16 @@
     <t>98,92%</t>
   </si>
   <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
+    <t>97,63%</t>
   </si>
   <si>
     <t>99,48%</t>
   </si>
   <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -140,31 +134,31 @@
     <t>0,26%</t>
   </si>
   <si>
-    <t>1,61%</t>
+    <t>1,57%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
   </si>
   <si>
     <t>99,31%</t>
   </si>
   <si>
-    <t>98,39%</t>
+    <t>98,43%</t>
   </si>
   <si>
     <t>99,74%</t>
@@ -173,19 +167,19 @@
     <t>98,82%</t>
   </si>
   <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
   </si>
   <si>
     <t>99,09%</t>
   </si>
   <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,1183 +188,1147 @@
     <t>1,38%</t>
   </si>
   <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
   </si>
   <si>
     <t>97,45%</t>
   </si>
   <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,82%</t>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
   </si>
   <si>
     <t>98,48%</t>
   </si>
   <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
   </si>
   <si>
     <t>5,04%</t>
   </si>
   <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
   </si>
   <si>
     <t>94,96%</t>
   </si>
   <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
     <t>85,49%</t>
   </si>
   <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
   </si>
   <si>
     <t>89,42%</t>
   </si>
   <si>
-    <t>90,83%</t>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
   </si>
   <si>
     <t>11,86%</t>
   </si>
   <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
   </si>
   <si>
     <t>19,6%</t>
   </si>
   <si>
-    <t>13,53%</t>
+    <t>13,74%</t>
   </si>
   <si>
     <t>22,7%</t>
@@ -1379,19 +1337,19 @@
     <t>16,46%</t>
   </si>
   <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
   </si>
   <si>
     <t>88,14%</t>
   </si>
   <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
   </si>
   <si>
     <t>80,4%</t>
@@ -1400,64 +1358,64 @@
     <t>77,3%</t>
   </si>
   <si>
-    <t>86,47%</t>
+    <t>86,26%</t>
   </si>
   <si>
     <t>83,54%</t>
   </si>
   <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
   </si>
   <si>
     <t>5,23%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
+    <t>6,14%</t>
   </si>
   <si>
     <t>10,45%</t>
   </si>
   <si>
-    <t>11,44%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
   </si>
   <si>
     <t>7,99%</t>
   </si>
   <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
   </si>
   <si>
     <t>94,77%</t>
   </si>
   <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
+    <t>93,86%</t>
   </si>
   <si>
     <t>89,55%</t>
   </si>
   <si>
-    <t>88,56%</t>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
   </si>
   <si>
     <t>92,01%</t>
   </si>
   <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
   </si>
 </sst>
 </file>
@@ -1869,7 +1827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D97E05A-970B-4EE4-A937-21DAF4D33BA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2961A3D3-813F-4DB3-9558-B53CA94EAB03}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2011,10 +1969,10 @@
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -2023,19 +1981,19 @@
         <v>5036</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>499</v>
@@ -2044,13 +2002,13 @@
         <v>494064</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>484</v>
@@ -2059,13 +2017,13 @@
         <v>462453</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>983</v>
@@ -2074,13 +2032,13 @@
         <v>956517</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,13 +2053,13 @@
         <v>494064</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7">
         <v>489</v>
@@ -2110,13 +2068,13 @@
         <v>467489</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
         <v>988</v>
@@ -2125,18 +2083,18 @@
         <v>961553</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2148,13 +2106,13 @@
         <v>5099</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -2163,13 +2121,13 @@
         <v>7353</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -2178,19 +2136,19 @@
         <v>12452</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>698</v>
@@ -2199,13 +2157,13 @@
         <v>730390</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>584</v>
@@ -2214,13 +2172,13 @@
         <v>618141</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>1282</v>
@@ -2229,13 +2187,13 @@
         <v>1348530</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,13 +2208,13 @@
         <v>735489</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7">
         <v>591</v>
@@ -2265,13 +2223,13 @@
         <v>625494</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M9" s="7">
         <v>1294</v>
@@ -2280,18 +2238,18 @@
         <v>1360982</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2303,13 +2261,13 @@
         <v>8786</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -2318,13 +2276,13 @@
         <v>15800</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -2333,19 +2291,19 @@
         <v>24586</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>603</v>
@@ -2354,13 +2312,13 @@
         <v>628863</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>643</v>
@@ -2405,13 +2363,13 @@
         <v>637649</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7">
         <v>658</v>
@@ -2420,13 +2378,13 @@
         <v>689744</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M12" s="7">
         <v>1270</v>
@@ -2435,13 +2393,13 @@
         <v>1327394</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2476,10 +2434,10 @@
         <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -2488,19 +2446,19 @@
         <v>30361</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>476</v>
@@ -2509,13 +2467,13 @@
         <v>509714</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>481</v>
@@ -2524,13 +2482,13 @@
         <v>494714</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>957</v>
@@ -2539,13 +2497,13 @@
         <v>1004428</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,13 +2518,13 @@
         <v>519147</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7">
         <v>502</v>
@@ -2575,13 +2533,13 @@
         <v>515642</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M15" s="7">
         <v>986</v>
@@ -2590,18 +2548,18 @@
         <v>1034789</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2613,13 +2571,13 @@
         <v>9863</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -2628,13 +2586,13 @@
         <v>25956</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -2643,19 +2601,19 @@
         <v>35819</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>382</v>
@@ -2664,13 +2622,13 @@
         <v>376847</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>371</v>
@@ -2679,13 +2637,13 @@
         <v>378030</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>753</v>
@@ -2694,13 +2652,13 @@
         <v>754877</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,13 +2673,13 @@
         <v>386710</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7">
         <v>396</v>
@@ -2730,13 +2688,13 @@
         <v>403986</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M18" s="7">
         <v>788</v>
@@ -2745,18 +2703,18 @@
         <v>790696</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2768,13 +2726,13 @@
         <v>31742</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -2783,13 +2741,13 @@
         <v>65600</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>98</v>
@@ -2798,19 +2756,19 @@
         <v>97342</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>488</v>
@@ -2819,13 +2777,13 @@
         <v>470724</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>598</v>
@@ -2834,13 +2792,13 @@
         <v>611242</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>1086</v>
@@ -2849,13 +2807,13 @@
         <v>1081966</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,13 +2828,13 @@
         <v>502466</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H21" s="7">
         <v>661</v>
@@ -2885,13 +2843,13 @@
         <v>676842</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M21" s="7">
         <v>1184</v>
@@ -2900,13 +2858,13 @@
         <v>1179308</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2923,13 +2881,13 @@
         <v>64924</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="H22" s="7">
         <v>136</v>
@@ -2938,13 +2896,13 @@
         <v>140672</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M22" s="7">
         <v>203</v>
@@ -2953,19 +2911,19 @@
         <v>205596</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>3146</v>
@@ -2974,13 +2932,13 @@
         <v>3210601</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <v>3161</v>
@@ -3001,7 +2959,7 @@
         <v>6307</v>
       </c>
       <c r="N23" s="7">
-        <v>6449127</v>
+        <v>6449126</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>132</v>
@@ -3025,13 +2983,13 @@
         <v>3275525</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" s="7">
         <v>3297</v>
@@ -3040,28 +2998,28 @@
         <v>3379198</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M24" s="7">
         <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,7 +3046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B965471-400B-4B24-8585-8D6AD83EEA63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B137F083-6546-4E5C-8264-36BADCF40516}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3242,19 +3200,19 @@
         <v>6679</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>444</v>
@@ -3263,13 +3221,13 @@
         <v>452287</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="7">
         <v>414</v>
@@ -3278,13 +3236,13 @@
         <v>423477</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M5" s="7">
         <v>858</v>
@@ -3293,13 +3251,13 @@
         <v>875766</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3272,13 @@
         <v>453105</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7">
         <v>420</v>
@@ -3329,13 +3287,13 @@
         <v>429339</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
         <v>865</v>
@@ -3344,18 +3302,18 @@
         <v>882445</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3367,13 +3325,13 @@
         <v>6711</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -3382,13 +3340,13 @@
         <v>5716</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -3397,19 +3355,19 @@
         <v>12427</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>661</v>
@@ -3418,13 +3376,13 @@
         <v>679527</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H8" s="7">
         <v>566</v>
@@ -3433,13 +3391,13 @@
         <v>603498</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M8" s="7">
         <v>1227</v>
@@ -3448,13 +3406,13 @@
         <v>1283024</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3427,13 @@
         <v>686238</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7">
         <v>570</v>
@@ -3484,13 +3442,13 @@
         <v>609214</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M9" s="7">
         <v>1236</v>
@@ -3499,18 +3457,18 @@
         <v>1295451</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3522,13 +3480,13 @@
         <v>15454</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -3537,34 +3495,34 @@
         <v>31248</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
       </c>
       <c r="N10" s="7">
-        <v>46702</v>
+        <v>46703</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>636</v>
@@ -3573,13 +3531,13 @@
         <v>663570</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="H11" s="7">
         <v>632</v>
@@ -3588,13 +3546,13 @@
         <v>674687</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M11" s="7">
         <v>1268</v>
@@ -3603,13 +3561,13 @@
         <v>1338257</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,13 +3582,13 @@
         <v>679024</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7">
         <v>663</v>
@@ -3639,28 +3597,28 @@
         <v>705935</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M12" s="7">
         <v>1311</v>
       </c>
       <c r="N12" s="7">
-        <v>1384959</v>
+        <v>1384960</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3635,13 @@
         <v>14636</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -3692,13 +3650,13 @@
         <v>33603</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -3707,19 +3665,19 @@
         <v>48240</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>536</v>
@@ -3728,13 +3686,13 @@
         <v>599981</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H14" s="7">
         <v>507</v>
@@ -3743,13 +3701,13 @@
         <v>579455</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M14" s="7">
         <v>1043</v>
@@ -3758,13 +3716,13 @@
         <v>1179435</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3737,13 @@
         <v>614617</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7">
         <v>536</v>
@@ -3794,13 +3752,13 @@
         <v>613058</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M15" s="7">
         <v>1084</v>
@@ -3809,18 +3767,18 @@
         <v>1227675</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3832,13 +3790,13 @@
         <v>9684</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -3847,13 +3805,13 @@
         <v>33213</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M16" s="7">
         <v>40</v>
@@ -3862,19 +3820,19 @@
         <v>42897</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>209</v>
+        <v>124</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>383</v>
@@ -3883,13 +3841,13 @@
         <v>418660</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H17" s="7">
         <v>375</v>
@@ -3898,13 +3856,13 @@
         <v>414587</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M17" s="7">
         <v>758</v>
@@ -3913,7 +3871,7 @@
         <v>833247</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>218</v>
+        <v>130</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>219</v>
@@ -3934,13 +3892,13 @@
         <v>428344</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7">
         <v>406</v>
@@ -3949,13 +3907,13 @@
         <v>447800</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M18" s="7">
         <v>798</v>
@@ -3964,18 +3922,18 @@
         <v>876144</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4029,7 +3987,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>481</v>
@@ -4089,13 +4047,13 @@
         <v>556614</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H21" s="7">
         <v>691</v>
@@ -4104,13 +4062,13 @@
         <v>739812</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M21" s="7">
         <v>1193</v>
@@ -4119,13 +4077,13 @@
         <v>1296426</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,10 +4100,10 @@
         <v>70022</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>240</v>
@@ -4172,19 +4130,19 @@
         <v>292981</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>3141</v>
@@ -4193,13 +4151,13 @@
         <v>3347919</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>246</v>
+        <v>84</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>247</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="H23" s="7">
         <v>3081</v>
@@ -4208,13 +4166,13 @@
         <v>3322200</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M23" s="7">
         <v>6222</v>
@@ -4223,13 +4181,13 @@
         <v>6670119</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,13 +4202,13 @@
         <v>3417941</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" s="7">
         <v>3286</v>
@@ -4259,13 +4217,13 @@
         <v>3545159</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M24" s="7">
         <v>6487</v>
@@ -4274,13 +4232,13 @@
         <v>6963100</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,7 +4265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3716CF5E-AA60-44A8-800D-53EEC795A813}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044AFF58-FF79-45C1-A4FA-4CDA492A35AD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4324,7 +4282,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4437,7 +4395,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -4446,13 +4404,13 @@
         <v>4600</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4461,19 +4419,19 @@
         <v>4600</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>393</v>
@@ -4482,13 +4440,13 @@
         <v>419463</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>400</v>
@@ -4497,13 +4455,13 @@
         <v>391155</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M5" s="7">
         <v>793</v>
@@ -4512,10 +4470,10 @@
         <v>810618</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>267</v>
@@ -4533,13 +4491,13 @@
         <v>419463</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7">
         <v>404</v>
@@ -4548,13 +4506,13 @@
         <v>395755</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
         <v>797</v>
@@ -4563,18 +4521,18 @@
         <v>815218</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4592,7 +4550,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>269</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4601,13 +4559,13 @@
         <v>6535</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -4616,19 +4574,19 @@
         <v>8524</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>565</v>
@@ -4637,13 +4595,13 @@
         <v>588507</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>275</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="7">
         <v>572</v>
@@ -4652,13 +4610,13 @@
         <v>557009</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>1137</v>
@@ -4667,13 +4625,13 @@
         <v>1145516</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4646,13 @@
         <v>590496</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7">
         <v>579</v>
@@ -4703,13 +4661,13 @@
         <v>563544</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M9" s="7">
         <v>1146</v>
@@ -4718,18 +4676,18 @@
         <v>1154040</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4741,13 +4699,13 @@
         <v>5558</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>280</v>
+        <v>68</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>152</v>
+        <v>278</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -4756,13 +4714,13 @@
         <v>14950</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>139</v>
+        <v>280</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>282</v>
+        <v>127</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -4771,19 +4729,19 @@
         <v>20507</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>633</v>
@@ -4792,13 +4750,13 @@
         <v>663539</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>286</v>
+        <v>78</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>161</v>
+        <v>285</v>
       </c>
       <c r="H11" s="7">
         <v>649</v>
@@ -4807,13 +4765,13 @@
         <v>646436</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>288</v>
+        <v>133</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>146</v>
+        <v>286</v>
       </c>
       <c r="M11" s="7">
         <v>1282</v>
@@ -4822,13 +4780,13 @@
         <v>1309976</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4801,13 @@
         <v>669097</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7">
         <v>665</v>
@@ -4858,13 +4816,13 @@
         <v>661386</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M12" s="7">
         <v>1303</v>
@@ -4873,13 +4831,13 @@
         <v>1330483</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,13 +4854,13 @@
         <v>18782</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -4911,13 +4869,13 @@
         <v>45422</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
@@ -4926,19 +4884,19 @@
         <v>64205</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>565</v>
@@ -4947,13 +4905,13 @@
         <v>627266</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H14" s="7">
         <v>559</v>
@@ -4962,13 +4920,13 @@
         <v>603655</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M14" s="7">
         <v>1124</v>
@@ -4977,13 +4935,13 @@
         <v>1230920</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,13 +4956,13 @@
         <v>646048</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7">
         <v>602</v>
@@ -5013,13 +4971,13 @@
         <v>649077</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M15" s="7">
         <v>1184</v>
@@ -5028,18 +4986,18 @@
         <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5051,13 +5009,13 @@
         <v>17614</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -5066,13 +5024,13 @@
         <v>66031</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -5081,19 +5039,19 @@
         <v>83645</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>410</v>
@@ -5102,13 +5060,13 @@
         <v>460304</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H17" s="7">
         <v>375</v>
@@ -5117,13 +5075,13 @@
         <v>430818</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M17" s="7">
         <v>785</v>
@@ -5132,13 +5090,13 @@
         <v>891122</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,13 +5111,13 @@
         <v>477918</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7">
         <v>433</v>
@@ -5168,13 +5126,13 @@
         <v>496849</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M18" s="7">
         <v>857</v>
@@ -5183,18 +5141,18 @@
         <v>974767</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5206,13 +5164,13 @@
         <v>46081</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="H19" s="7">
         <v>111</v>
@@ -5221,13 +5179,13 @@
         <v>128944</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="M19" s="7">
         <v>159</v>
@@ -5236,19 +5194,19 @@
         <v>175025</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>579</v>
@@ -5257,13 +5215,13 @@
         <v>545247</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H20" s="7">
         <v>544</v>
@@ -5272,13 +5230,13 @@
         <v>648987</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M20" s="7">
         <v>1123</v>
@@ -5287,13 +5245,13 @@
         <v>1194234</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5308,13 +5266,13 @@
         <v>591328</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H21" s="7">
         <v>655</v>
@@ -5323,13 +5281,13 @@
         <v>777931</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M21" s="7">
         <v>1282</v>
@@ -5338,13 +5296,13 @@
         <v>1369259</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5319,13 @@
         <v>90024</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>346</v>
+        <v>56</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H22" s="7">
         <v>239</v>
@@ -5376,13 +5334,13 @@
         <v>266481</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M22" s="7">
         <v>325</v>
@@ -5391,19 +5349,19 @@
         <v>356505</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>3145</v>
@@ -5412,13 +5370,13 @@
         <v>3304326</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>355</v>
+        <v>64</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H23" s="7">
         <v>3099</v>
@@ -5427,13 +5385,13 @@
         <v>3278061</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M23" s="7">
         <v>6244</v>
@@ -5442,13 +5400,13 @@
         <v>6582387</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5421,13 @@
         <v>3394350</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" s="7">
         <v>3338</v>
@@ -5478,13 +5436,13 @@
         <v>3544542</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M24" s="7">
         <v>6569</v>
@@ -5493,13 +5451,13 @@
         <v>6938892</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,7 +5484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF10D556-5575-49A6-ADA5-150F7820F47A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62E237E-1738-4B0A-9C51-A42E363B9136}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5543,7 +5501,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5650,13 +5608,13 @@
         <v>3582</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -5665,13 +5623,13 @@
         <v>14115</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>367</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -5680,19 +5638,19 @@
         <v>17698</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>369</v>
+        <v>177</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>370</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>193</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>170</v>
@@ -5701,13 +5659,13 @@
         <v>374097</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="7">
         <v>201</v>
@@ -5716,13 +5674,13 @@
         <v>340842</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>374</v>
+        <v>248</v>
       </c>
       <c r="M5" s="7">
         <v>371</v>
@@ -5731,13 +5689,13 @@
         <v>714938</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>375</v>
+        <v>186</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>201</v>
+        <v>370</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>376</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,13 +5710,13 @@
         <v>377679</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7">
         <v>207</v>
@@ -5767,13 +5725,13 @@
         <v>354957</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
         <v>379</v>
@@ -5782,18 +5740,18 @@
         <v>732636</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5805,13 +5763,13 @@
         <v>2894</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>377</v>
+        <v>49</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -5820,13 +5778,13 @@
         <v>7929</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -5835,19 +5793,19 @@
         <v>10822</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>269</v>
+        <v>376</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>298</v>
@@ -5856,13 +5814,13 @@
         <v>425502</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>383</v>
+        <v>59</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="H8" s="7">
         <v>454</v>
@@ -5871,13 +5829,13 @@
         <v>490648</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>133</v>
+        <v>381</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M8" s="7">
         <v>752</v>
@@ -5886,13 +5844,13 @@
         <v>916151</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>275</v>
+        <v>383</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>60</v>
+        <v>179</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,13 +5865,13 @@
         <v>428396</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7">
         <v>460</v>
@@ -5922,13 +5880,13 @@
         <v>498577</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M9" s="7">
         <v>762</v>
@@ -5937,18 +5895,18 @@
         <v>926973</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5960,13 +5918,13 @@
         <v>15828</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>390</v>
+        <v>239</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -5975,13 +5933,13 @@
         <v>24062</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>392</v>
+        <v>189</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -5990,19 +5948,19 @@
         <v>39891</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>395</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>397</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>534</v>
@@ -6011,13 +5969,13 @@
         <v>541424</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>400</v>
+        <v>248</v>
       </c>
       <c r="H11" s="7">
         <v>811</v>
@@ -6026,13 +5984,13 @@
         <v>559414</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>401</v>
+        <v>197</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="M11" s="7">
         <v>1345</v>
@@ -6041,13 +5999,13 @@
         <v>1100836</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>404</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>405</v>
+        <v>253</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,13 +6020,13 @@
         <v>557252</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7">
         <v>846</v>
@@ -6077,13 +6035,13 @@
         <v>583476</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M12" s="7">
         <v>1392</v>
@@ -6092,13 +6050,13 @@
         <v>1140727</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,13 +6073,13 @@
         <v>32040</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -6130,13 +6088,13 @@
         <v>64167</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="M13" s="7">
         <v>118</v>
@@ -6145,19 +6103,19 @@
         <v>96206</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>413</v>
+        <v>195</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>635</v>
@@ -6166,13 +6124,13 @@
         <v>691950</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="H14" s="7">
         <v>1052</v>
@@ -6181,13 +6139,13 @@
         <v>682935</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="M14" s="7">
         <v>1687</v>
@@ -6196,13 +6154,13 @@
         <v>1374886</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>422</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,13 +6175,13 @@
         <v>723990</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7">
         <v>1140</v>
@@ -6232,13 +6190,13 @@
         <v>747102</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M15" s="7">
         <v>1805</v>
@@ -6247,18 +6205,18 @@
         <v>1471092</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6270,13 +6228,13 @@
         <v>40112</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>423</v>
+        <v>347</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="H16" s="7">
         <v>144</v>
@@ -6285,13 +6243,13 @@
         <v>86077</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="M16" s="7">
         <v>187</v>
@@ -6300,19 +6258,19 @@
         <v>126189</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>619</v>
@@ -6321,13 +6279,13 @@
         <v>558974</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>431</v>
+        <v>356</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="H17" s="7">
         <v>855</v>
@@ -6336,13 +6294,13 @@
         <v>507339</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
         <v>1474</v>
@@ -6351,13 +6309,13 @@
         <v>1066313</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,13 +6330,13 @@
         <v>599086</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7">
         <v>999</v>
@@ -6387,13 +6345,13 @@
         <v>593416</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M18" s="7">
         <v>1661</v>
@@ -6402,18 +6360,18 @@
         <v>1192502</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6425,13 +6383,13 @@
         <v>82657</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
         <v>375</v>
@@ -6440,13 +6398,13 @@
         <v>200895</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="M19" s="7">
         <v>505</v>
@@ -6455,19 +6413,19 @@
         <v>283552</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>897</v>
@@ -6476,13 +6434,13 @@
         <v>614577</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="H20" s="7">
         <v>1330</v>
@@ -6491,13 +6449,13 @@
         <v>824120</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="M20" s="7">
         <v>2227</v>
@@ -6506,13 +6464,13 @@
         <v>1438697</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,13 +6485,13 @@
         <v>697234</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H21" s="7">
         <v>1705</v>
@@ -6542,13 +6500,13 @@
         <v>1025015</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M21" s="7">
         <v>2732</v>
@@ -6557,13 +6515,13 @@
         <v>1722249</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6580,13 +6538,13 @@
         <v>177114</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>458</v>
+        <v>292</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="H22" s="7">
         <v>654</v>
@@ -6595,13 +6553,13 @@
         <v>397244</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>88</v>
+        <v>446</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="M22" s="7">
         <v>875</v>
@@ -6610,49 +6568,49 @@
         <v>574358</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>3153</v>
       </c>
       <c r="D23" s="7">
-        <v>3206523</v>
+        <v>3206522</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>467</v>
+        <v>300</v>
       </c>
       <c r="H23" s="7">
         <v>4703</v>
       </c>
       <c r="I23" s="7">
-        <v>3405300</v>
+        <v>3405299</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>95</v>
+        <v>455</v>
       </c>
       <c r="M23" s="7">
         <v>7856</v>
@@ -6661,13 +6619,13 @@
         <v>6611822</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,31 +6637,31 @@
         <v>3374</v>
       </c>
       <c r="D24" s="7">
-        <v>3383637</v>
+        <v>3383636</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" s="7">
         <v>5357</v>
       </c>
       <c r="I24" s="7">
-        <v>3802544</v>
+        <v>3802543</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M24" s="7">
         <v>8731</v>
@@ -6712,13 +6670,13 @@
         <v>7186180</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BCE7282-478C-4557-A9D6-AA200DB79D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D66EDAD-C4DB-4C35-A17C-EFC3D84F502A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AC3D17A0-7BED-487B-8F7C-C7DF0D408A59}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B212ED04-1E2F-4546-8826-89A073719370}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="534">
   <si>
     <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -125,7 +125,7 @@
     <t>99,81%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,69%</t>
@@ -182,7 +182,7 @@
     <t>99,49%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>1,38%</t>
@@ -239,7 +239,7 @@
     <t>98,85%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>1,82%</t>
@@ -296,7 +296,7 @@
     <t>97,95%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>2,55%</t>
@@ -353,55 +353,118 @@
     <t>96,87%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
   </si>
   <si>
     <t>1,98%</t>
@@ -671,9 +734,6 @@
     <t>5,34%</t>
   </si>
   <si>
-    <t>10,33%</t>
-  </si>
-  <si>
     <t>3,62%</t>
   </si>
   <si>
@@ -692,9 +752,6 @@
     <t>92,58%</t>
   </si>
   <si>
-    <t>89,67%</t>
-  </si>
-  <si>
     <t>94,66%</t>
   </si>
   <si>
@@ -704,718 +761,886 @@
     <t>96,38%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
   </si>
   <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
   </si>
   <si>
     <t>91,26%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
   </si>
   <si>
     <t>5,71%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
   </si>
   <si>
     <t>94,29%</t>
   </si>
   <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
   </si>
 </sst>
 </file>
@@ -1827,8 +2052,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2961A3D3-813F-4DB3-9558-B53CA94EAB03}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D585883-D23A-4E16-98B4-DA5A45CA2A27}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2720,49 +2945,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D19" s="7">
-        <v>31742</v>
+        <v>14981</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="I19" s="7">
-        <v>65600</v>
+        <v>31101</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="N19" s="7">
-        <v>97342</v>
+        <v>46082</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,49 +2996,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>488</v>
+        <v>286</v>
       </c>
       <c r="D20" s="7">
-        <v>470724</v>
+        <v>277602</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
-        <v>598</v>
+        <v>338</v>
       </c>
       <c r="I20" s="7">
-        <v>611242</v>
+        <v>311833</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
-        <v>1086</v>
+        <v>624</v>
       </c>
       <c r="N20" s="7">
-        <v>1081966</v>
+        <v>589435</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,10 +3047,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>22</v>
@@ -2837,10 +3062,10 @@
         <v>22</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>22</v>
@@ -2852,10 +3077,10 @@
         <v>22</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>22</v>
@@ -2869,55 +3094,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D22" s="7">
-        <v>64924</v>
+        <v>16761</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="I22" s="7">
-        <v>140672</v>
+        <v>34499</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
-        <v>203</v>
+        <v>48</v>
       </c>
       <c r="N22" s="7">
-        <v>205596</v>
+        <v>51260</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,49 +3151,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>3146</v>
+        <v>202</v>
       </c>
       <c r="D23" s="7">
-        <v>3210601</v>
+        <v>193122</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
-        <v>3161</v>
+        <v>260</v>
       </c>
       <c r="I23" s="7">
-        <v>3238526</v>
+        <v>299409</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
-        <v>6307</v>
+        <v>462</v>
       </c>
       <c r="N23" s="7">
-        <v>6449126</v>
+        <v>492531</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,63 +3202,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>67</v>
+      </c>
+      <c r="D25" s="7">
+        <v>64924</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="7">
+        <v>136</v>
+      </c>
+      <c r="I25" s="7">
+        <v>140672</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M25" s="7">
+        <v>203</v>
+      </c>
+      <c r="N25" s="7">
+        <v>205596</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3146</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3210601</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3161</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3238525</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6307</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6449126</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3213</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3275525</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="7">
         <v>6510</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6654722</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>135</v>
+      <c r="O27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3046,8 +3427,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B137F083-6546-4E5C-8264-36BADCF40516}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3658EAC-EEF5-47B5-9F82-CE15D7D30800}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3063,7 +3444,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3170,13 +3551,13 @@
         <v>818</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -3185,13 +3566,13 @@
         <v>5862</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -3200,13 +3581,13 @@
         <v>6679</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,10 +3602,10 @@
         <v>452287</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>20</v>
@@ -3236,13 +3617,13 @@
         <v>423477</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>858</v>
@@ -3251,13 +3632,13 @@
         <v>875766</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,13 +3706,13 @@
         <v>6711</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -3340,13 +3721,13 @@
         <v>5716</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -3355,13 +3736,13 @@
         <v>12427</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,13 +3757,13 @@
         <v>679527</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>566</v>
@@ -3391,13 +3772,13 @@
         <v>603498</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>1227</v>
@@ -3406,13 +3787,13 @@
         <v>1283024</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,13 +3861,13 @@
         <v>15454</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>87</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -3495,28 +3876,28 @@
         <v>31248</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
       </c>
       <c r="N10" s="7">
-        <v>46703</v>
+        <v>46702</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,10 +3912,10 @@
         <v>663570</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>97</v>
@@ -3546,13 +3927,13 @@
         <v>674687</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>1268</v>
@@ -3561,13 +3942,13 @@
         <v>1338257</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,7 +3990,7 @@
         <v>1311</v>
       </c>
       <c r="N12" s="7">
-        <v>1384960</v>
+        <v>1384959</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>22</v>
@@ -3635,13 +4016,13 @@
         <v>14636</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -3650,13 +4031,13 @@
         <v>33603</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -3665,13 +4046,13 @@
         <v>48240</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,13 +4067,13 @@
         <v>599981</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>507</v>
@@ -3701,13 +4082,13 @@
         <v>579455</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>1043</v>
@@ -3716,13 +4097,13 @@
         <v>1179435</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,13 +4171,13 @@
         <v>9684</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -3805,13 +4186,13 @@
         <v>33213</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>210</v>
+        <v>127</v>
       </c>
       <c r="M16" s="7">
         <v>40</v>
@@ -3820,13 +4201,13 @@
         <v>42897</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,13 +4222,13 @@
         <v>418660</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="H17" s="7">
         <v>375</v>
@@ -3856,13 +4237,13 @@
         <v>414587</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="M17" s="7">
         <v>758</v>
@@ -3871,13 +4252,13 @@
         <v>833247</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,49 +4320,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>22718</v>
+        <v>10109</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="H19" s="7">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="I19" s="7">
-        <v>113317</v>
+        <v>40540</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="M19" s="7">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="N19" s="7">
-        <v>136035</v>
+        <v>50649</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,49 +4371,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>481</v>
+        <v>272</v>
       </c>
       <c r="D20" s="7">
-        <v>533896</v>
+        <v>297686</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="H20" s="7">
-        <v>587</v>
+        <v>304</v>
       </c>
       <c r="I20" s="7">
-        <v>626495</v>
+        <v>312519</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="M20" s="7">
-        <v>1068</v>
+        <v>576</v>
       </c>
       <c r="N20" s="7">
-        <v>1160391</v>
+        <v>610205</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,10 +4422,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>502</v>
+        <v>281</v>
       </c>
       <c r="D21" s="7">
-        <v>556614</v>
+        <v>307795</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>22</v>
@@ -4056,10 +4437,10 @@
         <v>22</v>
       </c>
       <c r="H21" s="7">
-        <v>691</v>
+        <v>343</v>
       </c>
       <c r="I21" s="7">
-        <v>739812</v>
+        <v>353059</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>22</v>
@@ -4071,10 +4452,10 @@
         <v>22</v>
       </c>
       <c r="M21" s="7">
-        <v>1193</v>
+        <v>624</v>
       </c>
       <c r="N21" s="7">
-        <v>1296426</v>
+        <v>660854</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>22</v>
@@ -4088,55 +4469,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D22" s="7">
-        <v>70022</v>
+        <v>12609</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H22" s="7">
-        <v>205</v>
+        <v>65</v>
       </c>
       <c r="I22" s="7">
-        <v>222959</v>
+        <v>72777</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="M22" s="7">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="N22" s="7">
-        <v>292981</v>
+        <v>85386</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,49 +4526,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>3141</v>
+        <v>209</v>
       </c>
       <c r="D23" s="7">
-        <v>3347919</v>
+        <v>236210</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>84</v>
+        <v>265</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>248</v>
+        <v>155</v>
       </c>
       <c r="H23" s="7">
-        <v>3081</v>
+        <v>283</v>
       </c>
       <c r="I23" s="7">
-        <v>3322200</v>
+        <v>313976</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="M23" s="7">
-        <v>6222</v>
+        <v>492</v>
       </c>
       <c r="N23" s="7">
-        <v>6670119</v>
+        <v>550186</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,63 +4577,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>221</v>
+      </c>
+      <c r="D24" s="7">
+        <v>248819</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="7">
+        <v>348</v>
+      </c>
+      <c r="I24" s="7">
+        <v>386753</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="7">
+        <v>569</v>
+      </c>
+      <c r="N24" s="7">
+        <v>635572</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>60</v>
+      </c>
+      <c r="D25" s="7">
+        <v>70022</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H25" s="7">
+        <v>205</v>
+      </c>
+      <c r="I25" s="7">
+        <v>222959</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="M25" s="7">
+        <v>265</v>
+      </c>
+      <c r="N25" s="7">
+        <v>292981</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3141</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3347919</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3081</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3322200</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6222</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6670119</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3201</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3417941</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7">
         <v>3286</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3545159</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="7">
         <v>6487</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6963100</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>135</v>
+      <c r="O27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4265,8 +4802,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044AFF58-FF79-45C1-A4FA-4CDA492A35AD}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A59967-1C91-4960-A2D9-39125CD16B5F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4282,7 +4819,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4395,7 +4932,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -4404,13 +4941,13 @@
         <v>4600</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4419,13 +4956,13 @@
         <v>4600</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,7 +4980,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -4455,13 +4992,13 @@
         <v>391155</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
         <v>793</v>
@@ -4470,13 +5007,13 @@
         <v>810618</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,7 +5081,7 @@
         <v>1989</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
@@ -4559,13 +5096,13 @@
         <v>6535</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -4574,13 +5111,13 @@
         <v>8524</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,7 +5132,7 @@
         <v>588507</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>41</v>
@@ -4610,13 +5147,13 @@
         <v>557009</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="M8" s="7">
         <v>1137</v>
@@ -4625,13 +5162,13 @@
         <v>1145516</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4702,10 +5239,10 @@
         <v>68</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -4714,13 +5251,13 @@
         <v>14950</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -4729,13 +5266,13 @@
         <v>20507</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,10 +5290,10 @@
         <v>78</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="H11" s="7">
         <v>649</v>
@@ -4765,13 +5302,13 @@
         <v>646436</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="M11" s="7">
         <v>1282</v>
@@ -4780,13 +5317,13 @@
         <v>1309976</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,13 +5391,13 @@
         <v>18782</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -4869,13 +5406,13 @@
         <v>45422</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
@@ -4884,13 +5421,13 @@
         <v>64205</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,13 +5442,13 @@
         <v>627266</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="H14" s="7">
         <v>559</v>
@@ -4920,13 +5457,13 @@
         <v>603655</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="M14" s="7">
         <v>1124</v>
@@ -4935,13 +5472,13 @@
         <v>1230920</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,13 +5546,13 @@
         <v>17614</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -5024,13 +5561,13 @@
         <v>66031</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -5039,13 +5576,13 @@
         <v>83645</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,13 +5597,13 @@
         <v>460304</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="H17" s="7">
         <v>375</v>
@@ -5075,13 +5612,13 @@
         <v>430818</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="M17" s="7">
         <v>785</v>
@@ -5090,13 +5627,13 @@
         <v>891122</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,49 +5695,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D19" s="7">
-        <v>46081</v>
+        <v>23983</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="H19" s="7">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="I19" s="7">
-        <v>128944</v>
+        <v>66065</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="M19" s="7">
-        <v>159</v>
+        <v>86</v>
       </c>
       <c r="N19" s="7">
-        <v>175025</v>
+        <v>90048</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5209,49 +5746,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>579</v>
+        <v>301</v>
       </c>
       <c r="D20" s="7">
-        <v>545247</v>
+        <v>310347</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="H20" s="7">
-        <v>544</v>
+        <v>292</v>
       </c>
       <c r="I20" s="7">
-        <v>648987</v>
+        <v>311697</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="M20" s="7">
-        <v>1123</v>
+        <v>593</v>
       </c>
       <c r="N20" s="7">
-        <v>1194234</v>
+        <v>622044</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5260,10 +5797,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>22</v>
@@ -5275,10 +5812,10 @@
         <v>22</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>22</v>
@@ -5290,10 +5827,10 @@
         <v>22</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>22</v>
@@ -5307,55 +5844,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="D22" s="7">
-        <v>90024</v>
+        <v>22098</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>56</v>
+        <v>377</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="H22" s="7">
-        <v>239</v>
+        <v>49</v>
       </c>
       <c r="I22" s="7">
-        <v>266481</v>
+        <v>62878</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="M22" s="7">
-        <v>325</v>
+        <v>73</v>
       </c>
       <c r="N22" s="7">
-        <v>356505</v>
+        <v>84977</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,49 +5901,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>3145</v>
+        <v>278</v>
       </c>
       <c r="D23" s="7">
-        <v>3304326</v>
+        <v>234900</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>64</v>
+        <v>386</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="H23" s="7">
-        <v>3099</v>
+        <v>252</v>
       </c>
       <c r="I23" s="7">
-        <v>3278061</v>
+        <v>337291</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="M23" s="7">
-        <v>6244</v>
+        <v>530</v>
       </c>
       <c r="N23" s="7">
-        <v>6582387</v>
+        <v>572190</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5415,63 +5952,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>86</v>
+      </c>
+      <c r="D25" s="7">
+        <v>90024</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H25" s="7">
+        <v>239</v>
+      </c>
+      <c r="I25" s="7">
+        <v>266481</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="M25" s="7">
+        <v>325</v>
+      </c>
+      <c r="N25" s="7">
+        <v>356505</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3145</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3304326</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3099</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3278061</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6244</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6582387</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>135</v>
+      <c r="O27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5484,8 +6177,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62E237E-1738-4B0A-9C51-A42E363B9136}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F565E629-9806-4B7A-817A-75B8C72DA1D0}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5501,7 +6194,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>411</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5605,46 +6298,46 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>3582</v>
+        <v>3988</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>14115</v>
+        <v>11740</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>239</v>
+        <v>413</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>17698</v>
+        <v>15728</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>177</v>
+        <v>415</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>206</v>
+        <v>416</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>365</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,13 +6349,13 @@
         <v>170</v>
       </c>
       <c r="D5" s="7">
-        <v>374097</v>
+        <v>395999</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>366</v>
+        <v>322</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>367</v>
+        <v>418</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>20</v>
@@ -5671,31 +6364,31 @@
         <v>201</v>
       </c>
       <c r="I5" s="7">
-        <v>340842</v>
+        <v>301460</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>368</v>
+        <v>287</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>420</v>
       </c>
       <c r="M5" s="7">
         <v>371</v>
       </c>
       <c r="N5" s="7">
-        <v>714938</v>
+        <v>697459</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>186</v>
+        <v>421</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>215</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,7 +6400,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>22</v>
@@ -5722,7 +6415,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>22</v>
@@ -5737,7 +6430,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>22</v>
@@ -5760,46 +6453,46 @@
         <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>2894</v>
+        <v>2811</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>49</v>
+        <v>424</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>7929</v>
+        <v>7203</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>374</v>
+        <v>16</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>375</v>
+        <v>428</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>10822</v>
+        <v>10014</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>376</v>
+        <v>429</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>377</v>
+        <v>289</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>171</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,46 +6504,46 @@
         <v>298</v>
       </c>
       <c r="D8" s="7">
-        <v>425502</v>
+        <v>420736</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>59</v>
+        <v>431</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>379</v>
+        <v>433</v>
       </c>
       <c r="H8" s="7">
         <v>454</v>
       </c>
       <c r="I8" s="7">
-        <v>490648</v>
+        <v>504301</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>382</v>
+        <v>25</v>
       </c>
       <c r="M8" s="7">
         <v>752</v>
       </c>
       <c r="N8" s="7">
-        <v>916151</v>
+        <v>925037</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>179</v>
+        <v>437</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>384</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,7 +6555,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>22</v>
@@ -5877,7 +6570,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>22</v>
@@ -5892,7 +6585,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>22</v>
@@ -5915,46 +6608,46 @@
         <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>15828</v>
+        <v>15205</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>385</v>
+        <v>438</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>439</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
       </c>
       <c r="I10" s="7">
-        <v>24062</v>
+        <v>22665</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>189</v>
+        <v>441</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>387</v>
+        <v>442</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
       </c>
       <c r="N10" s="7">
-        <v>39891</v>
+        <v>37869</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>389</v>
+        <v>86</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,46 +6659,46 @@
         <v>534</v>
       </c>
       <c r="D11" s="7">
-        <v>541424</v>
+        <v>521133</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>390</v>
+        <v>445</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>447</v>
       </c>
       <c r="H11" s="7">
         <v>811</v>
       </c>
       <c r="I11" s="7">
-        <v>559414</v>
+        <v>519803</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>448</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="M11" s="7">
         <v>1345</v>
       </c>
       <c r="N11" s="7">
-        <v>1100836</v>
+        <v>1040937</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>152</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>253</v>
+        <v>451</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>394</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,7 +6710,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>22</v>
@@ -6032,7 +6725,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>22</v>
@@ -6047,7 +6740,7 @@
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>22</v>
@@ -6070,46 +6763,46 @@
         <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>32040</v>
+        <v>30602</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>452</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>396</v>
+        <v>454</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
       </c>
       <c r="I13" s="7">
-        <v>64167</v>
+        <v>58499</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>397</v>
+        <v>455</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
       <c r="M13" s="7">
         <v>118</v>
       </c>
       <c r="N13" s="7">
-        <v>96206</v>
+        <v>89101</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>400</v>
+        <v>458</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>401</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6121,46 +6814,46 @@
         <v>635</v>
       </c>
       <c r="D14" s="7">
-        <v>691950</v>
+        <v>857184</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>460</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>402</v>
+        <v>461</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>403</v>
+        <v>462</v>
       </c>
       <c r="H14" s="7">
         <v>1052</v>
       </c>
       <c r="I14" s="7">
-        <v>682935</v>
+        <v>654222</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>404</v>
+        <v>463</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>405</v>
+        <v>464</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>406</v>
+        <v>465</v>
       </c>
       <c r="M14" s="7">
         <v>1687</v>
       </c>
       <c r="N14" s="7">
-        <v>1374886</v>
+        <v>1511406</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>407</v>
+        <v>466</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>408</v>
+        <v>467</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,7 +6865,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>22</v>
@@ -6187,7 +6880,7 @@
         <v>1140</v>
       </c>
       <c r="I15" s="7">
-        <v>747102</v>
+        <v>712721</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>22</v>
@@ -6202,7 +6895,7 @@
         <v>1805</v>
       </c>
       <c r="N15" s="7">
-        <v>1471092</v>
+        <v>1600507</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>22</v>
@@ -6225,46 +6918,46 @@
         <v>43</v>
       </c>
       <c r="D16" s="7">
-        <v>40112</v>
+        <v>37866</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>347</v>
+        <v>468</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>409</v>
+        <v>258</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>410</v>
+        <v>469</v>
       </c>
       <c r="H16" s="7">
         <v>144</v>
       </c>
       <c r="I16" s="7">
-        <v>86077</v>
+        <v>79077</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>411</v>
+        <v>470</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>412</v>
+        <v>471</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>413</v>
+        <v>472</v>
       </c>
       <c r="M16" s="7">
         <v>187</v>
       </c>
       <c r="N16" s="7">
-        <v>126189</v>
+        <v>116943</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>414</v>
+        <v>473</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>415</v>
+        <v>474</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>416</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6276,46 +6969,46 @@
         <v>619</v>
       </c>
       <c r="D17" s="7">
-        <v>558974</v>
+        <v>522371</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>356</v>
+        <v>476</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>417</v>
+        <v>477</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>418</v>
+        <v>265</v>
       </c>
       <c r="H17" s="7">
         <v>855</v>
       </c>
       <c r="I17" s="7">
-        <v>507339</v>
+        <v>465650</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>421</v>
+        <v>480</v>
       </c>
       <c r="M17" s="7">
         <v>1474</v>
       </c>
       <c r="N17" s="7">
-        <v>1066313</v>
+        <v>988020</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>422</v>
+        <v>481</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>423</v>
+        <v>482</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>424</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6327,7 +7020,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>22</v>
@@ -6342,7 +7035,7 @@
         <v>999</v>
       </c>
       <c r="I18" s="7">
-        <v>593416</v>
+        <v>544727</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>22</v>
@@ -6357,7 +7050,7 @@
         <v>1661</v>
       </c>
       <c r="N18" s="7">
-        <v>1192502</v>
+        <v>1104963</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>22</v>
@@ -6377,49 +7070,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="D19" s="7">
-        <v>82657</v>
+        <v>32160</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>425</v>
+        <v>484</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>426</v>
+        <v>485</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>427</v>
+        <v>486</v>
       </c>
       <c r="H19" s="7">
-        <v>375</v>
+        <v>135</v>
       </c>
       <c r="I19" s="7">
-        <v>200895</v>
+        <v>64861</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>428</v>
+        <v>487</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>429</v>
+        <v>193</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>430</v>
+        <v>488</v>
       </c>
       <c r="M19" s="7">
-        <v>505</v>
+        <v>186</v>
       </c>
       <c r="N19" s="7">
-        <v>283552</v>
+        <v>97021</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>431</v>
+        <v>489</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>432</v>
+        <v>490</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>433</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6428,49 +7121,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>897</v>
+        <v>519</v>
       </c>
       <c r="D20" s="7">
-        <v>614577</v>
+        <v>336005</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>434</v>
+        <v>492</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>435</v>
+        <v>493</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>436</v>
+        <v>494</v>
       </c>
       <c r="H20" s="7">
-        <v>1330</v>
+        <v>692</v>
       </c>
       <c r="I20" s="7">
-        <v>824120</v>
+        <v>543507</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>437</v>
+        <v>495</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>439</v>
+        <v>201</v>
       </c>
       <c r="M20" s="7">
-        <v>2227</v>
+        <v>1211</v>
       </c>
       <c r="N20" s="7">
-        <v>1438697</v>
+        <v>879512</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6479,10 +7172,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1027</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697234</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>22</v>
@@ -6494,10 +7187,10 @@
         <v>22</v>
       </c>
       <c r="H21" s="7">
-        <v>1705</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1025015</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>22</v>
@@ -6509,10 +7202,10 @@
         <v>22</v>
       </c>
       <c r="M21" s="7">
-        <v>2732</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1722249</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>22</v>
@@ -6526,55 +7219,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="D22" s="7">
-        <v>177114</v>
+        <v>45151</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>292</v>
+        <v>501</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>444</v>
+        <v>502</v>
       </c>
       <c r="H22" s="7">
-        <v>654</v>
+        <v>240</v>
       </c>
       <c r="I22" s="7">
-        <v>397244</v>
+        <v>115874</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>445</v>
+        <v>503</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>446</v>
+        <v>504</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="M22" s="7">
-        <v>875</v>
+        <v>319</v>
       </c>
       <c r="N22" s="7">
-        <v>574358</v>
+        <v>161025</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>448</v>
+        <v>506</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>449</v>
+        <v>507</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>450</v>
+        <v>508</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6583,49 +7276,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>3153</v>
+        <v>378</v>
       </c>
       <c r="D23" s="7">
-        <v>3206522</v>
+        <v>237118</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>451</v>
+        <v>509</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>300</v>
+        <v>511</v>
       </c>
       <c r="H23" s="7">
-        <v>4703</v>
+        <v>638</v>
       </c>
       <c r="I23" s="7">
-        <v>3405299</v>
+        <v>308520</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>454</v>
+        <v>513</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>455</v>
+        <v>514</v>
       </c>
       <c r="M23" s="7">
-        <v>7856</v>
+        <v>1016</v>
       </c>
       <c r="N23" s="7">
-        <v>6611822</v>
+        <v>545638</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>456</v>
+        <v>515</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,63 +7327,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>457</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282269</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="7">
+        <v>878</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424394</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1335</v>
+      </c>
+      <c r="N24" s="7">
+        <v>706663</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>221</v>
+      </c>
+      <c r="D25" s="7">
+        <v>167783</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="H25" s="7">
+        <v>654</v>
+      </c>
+      <c r="I25" s="7">
+        <v>359919</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="M25" s="7">
+        <v>875</v>
+      </c>
+      <c r="N25" s="7">
+        <v>527702</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3153</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3290547</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4703</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3297462</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7856</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6588010</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3374</v>
       </c>
-      <c r="D24" s="7">
-        <v>3383636</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3458330</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7">
         <v>5357</v>
       </c>
-      <c r="I24" s="7">
-        <v>3802543</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3657381</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="7">
         <v>8731</v>
       </c>
-      <c r="N24" s="7">
-        <v>7186180</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>135</v>
+      <c r="N27" s="7">
+        <v>7115712</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
